--- a/data/original_changelog_and_velocity_cal.xlsx
+++ b/data/original_changelog_and_velocity_cal.xlsx
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,12 +749,12 @@
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -771,7 +771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -791,11 +791,11 @@
         <v>86</v>
       </c>
       <c r="H3">
-        <f>SUM(E3:E28)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <f>SUM(E21:E28)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -866,14 +866,11 @@
         <v>125</v>
       </c>
       <c r="K7">
-        <f>(H3+H32+H36+H40)/4</f>
-        <v>42.25</v>
-      </c>
-      <c r="L7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <f>(H3+H32+H36+H40)/2</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -890,7 +887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -907,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -924,7 +921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -941,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -958,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -975,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -992,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1009,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1269,8 +1266,7 @@
         <v>86</v>
       </c>
       <c r="H32">
-        <f>E32</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1315,8 +1311,7 @@
         <v>86</v>
       </c>
       <c r="H36">
-        <f>E36</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1361,8 +1356,8 @@
         <v>86</v>
       </c>
       <c r="H40">
-        <f>SUM(E40:E49)</f>
-        <v>40</v>
+        <f>SUM(E40:E46)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
